--- a/レポート用アンケート調査 copy.xlsx
+++ b/レポート用アンケート調査 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yut0takagi/Develop/MR_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3061A6C6-D30C-9C4E-A36A-AC4D463570A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B6652-7ADD-8C49-8A1D-A2F84602B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>ソニー _親しみやすい</t>
-  </si>
-  <si>
-    <t>ソニー _個性的である</t>
   </si>
   <si>
     <t>ソニー _洗練されてる</t>
@@ -439,6 +436,10 @@
     <rPh sb="0" eb="1">
       <t xml:space="preserve">セイベツ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソニー _個性的である</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -872,18 +873,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CS153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM1" sqref="CM1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:97" ht="19" thickBot="1">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -922,235 +923,235 @@
         <v>24</v>
       </c>
       <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>60</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>62</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>63</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>64</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>65</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>66</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>68</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>73</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>74</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>75</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>76</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>77</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>79</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>80</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>81</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>82</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>83</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>84</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>85</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>86</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>87</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>88</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>89</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>90</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>91</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>92</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>93</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>94</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>95</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>96</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>97</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>98</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>99</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>100</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:97" ht="19" thickBot="1">
